--- a/03_DB設計書・機能設計書/2班_データベース設計書.xlsx
+++ b/03_DB設計書・機能設計書/2班_データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81908\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71246EB0-EFFA-4739-8ADD-5FE346FAE0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5194924-71D5-4CC2-85FD-BED6B6CF49D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="170">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -837,6 +837,21 @@
   </si>
   <si>
     <t>R,U,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒岩</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2339,7 +2354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2908,6 +2923,54 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2956,18 +3019,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2995,25 +3049,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3028,281 +3079,284 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3311,18 +3365,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3352,6 +3394,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3363,48 +3414,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3474,8 +3483,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1096211" y="5948948"/>
-          <a:ext cx="6036813" cy="6898105"/>
+          <a:off x="1088443" y="5929076"/>
+          <a:ext cx="6043136" cy="6907499"/>
           <a:chOff x="1792200" y="588755"/>
           <a:chExt cx="6036813" cy="5733631"/>
         </a:xfrm>
@@ -5455,8 +5464,8 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:AB25"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24:AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -5891,21 +5900,21 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="220" t="s">
+      <c r="U3" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="221"/>
-      <c r="W3" s="222">
+      <c r="V3" s="212"/>
+      <c r="W3" s="236">
         <v>45070</v>
       </c>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="223"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="223"/>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="221"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211"/>
+      <c r="AC3" s="211"/>
+      <c r="AD3" s="211"/>
+      <c r="AE3" s="212"/>
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -6017,20 +6026,20 @@
       <c r="C7" s="177"/>
       <c r="D7" s="177"/>
       <c r="E7" s="178"/>
-      <c r="F7" s="205" t="s">
+      <c r="F7" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="206"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="207"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="223"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -6048,82 +6057,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="214" t="s">
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="216"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="232"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="204" t="s">
+      <c r="W8" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204" t="s">
+      <c r="X8" s="220"/>
+      <c r="Y8" s="220"/>
+      <c r="Z8" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204" t="s">
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="220"/>
+      <c r="AC8" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="204"/>
+      <c r="AD8" s="220"/>
+      <c r="AE8" s="220"/>
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="219"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="235"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="225"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="224" t="s">
+      <c r="W9" s="237"/>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="239"/>
+      <c r="Z9" s="237"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="239"/>
+      <c r="AC9" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="225"/>
-      <c r="AE9" s="226"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="239"/>
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -6149,15 +6158,15 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="228"/>
-      <c r="Y10" s="229"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="228"/>
-      <c r="AB10" s="229"/>
-      <c r="AC10" s="227"/>
-      <c r="AD10" s="228"/>
-      <c r="AE10" s="229"/>
+      <c r="W10" s="240"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="242"/>
+      <c r="Z10" s="240"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="242"/>
+      <c r="AC10" s="240"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="242"/>
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -6183,15 +6192,15 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="228"/>
-      <c r="Y11" s="229"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="228"/>
-      <c r="AB11" s="229"/>
-      <c r="AC11" s="227"/>
-      <c r="AD11" s="228"/>
-      <c r="AE11" s="229"/>
+      <c r="W11" s="240"/>
+      <c r="X11" s="241"/>
+      <c r="Y11" s="242"/>
+      <c r="Z11" s="240"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="242"/>
+      <c r="AC11" s="240"/>
+      <c r="AD11" s="241"/>
+      <c r="AE11" s="242"/>
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -6217,15 +6226,15 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="230"/>
-      <c r="X12" s="231"/>
-      <c r="Y12" s="232"/>
-      <c r="Z12" s="230"/>
-      <c r="AA12" s="231"/>
-      <c r="AB12" s="232"/>
-      <c r="AC12" s="230"/>
-      <c r="AD12" s="231"/>
-      <c r="AE12" s="232"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="244"/>
+      <c r="Y12" s="245"/>
+      <c r="Z12" s="243"/>
+      <c r="AA12" s="244"/>
+      <c r="AB12" s="245"/>
+      <c r="AC12" s="243"/>
+      <c r="AD12" s="244"/>
+      <c r="AE12" s="245"/>
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -6320,106 +6329,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="233"/>
-      <c r="R16" s="233"/>
-      <c r="S16" s="233"/>
-      <c r="T16" s="233"/>
-      <c r="U16" s="233"/>
-      <c r="V16" s="233"/>
-      <c r="W16" s="233"/>
-      <c r="X16" s="233"/>
-      <c r="Y16" s="233"/>
-      <c r="Z16" s="233"/>
-      <c r="AA16" s="233"/>
-      <c r="AB16" s="233"/>
-      <c r="AC16" s="233"/>
-      <c r="AD16" s="233"/>
-      <c r="AE16" s="233"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="219"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="219"/>
+      <c r="S16" s="219"/>
+      <c r="T16" s="219"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="219"/>
+      <c r="W16" s="219"/>
+      <c r="X16" s="219"/>
+      <c r="Y16" s="219"/>
+      <c r="Z16" s="219"/>
+      <c r="AA16" s="219"/>
+      <c r="AB16" s="219"/>
+      <c r="AC16" s="219"/>
+      <c r="AD16" s="219"/>
+      <c r="AE16" s="219"/>
       <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="233"/>
-      <c r="S17" s="233"/>
-      <c r="T17" s="233"/>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
-      <c r="W17" s="233"/>
-      <c r="X17" s="233"/>
-      <c r="Y17" s="233"/>
-      <c r="Z17" s="233"/>
-      <c r="AA17" s="233"/>
-      <c r="AB17" s="233"/>
-      <c r="AC17" s="233"/>
-      <c r="AD17" s="233"/>
-      <c r="AE17" s="233"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="219"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="219"/>
+      <c r="S17" s="219"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="219"/>
+      <c r="W17" s="219"/>
+      <c r="X17" s="219"/>
+      <c r="Y17" s="219"/>
+      <c r="Z17" s="219"/>
+      <c r="AA17" s="219"/>
+      <c r="AB17" s="219"/>
+      <c r="AC17" s="219"/>
+      <c r="AD17" s="219"/>
+      <c r="AE17" s="219"/>
       <c r="AF17" s="4"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="233"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="233"/>
-      <c r="V18" s="233"/>
-      <c r="W18" s="233"/>
-      <c r="X18" s="233"/>
-      <c r="Y18" s="233"/>
-      <c r="Z18" s="233"/>
-      <c r="AA18" s="233"/>
-      <c r="AB18" s="233"/>
-      <c r="AC18" s="233"/>
-      <c r="AD18" s="233"/>
-      <c r="AE18" s="233"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="219"/>
+      <c r="S18" s="219"/>
+      <c r="T18" s="219"/>
+      <c r="U18" s="219"/>
+      <c r="V18" s="219"/>
+      <c r="W18" s="219"/>
+      <c r="X18" s="219"/>
+      <c r="Y18" s="219"/>
+      <c r="Z18" s="219"/>
+      <c r="AA18" s="219"/>
+      <c r="AB18" s="219"/>
+      <c r="AC18" s="219"/>
+      <c r="AD18" s="219"/>
+      <c r="AE18" s="219"/>
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -6558,400 +6567,408 @@
     </row>
     <row r="23" spans="1:32" s="19" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="220" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="220" t="s">
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="223"/>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="223"/>
-      <c r="S23" s="223"/>
-      <c r="T23" s="223"/>
-      <c r="U23" s="223"/>
-      <c r="V23" s="223"/>
-      <c r="W23" s="223"/>
-      <c r="X23" s="223"/>
-      <c r="Y23" s="223"/>
-      <c r="Z23" s="223"/>
-      <c r="AA23" s="223"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="220" t="s">
+      <c r="K23" s="211"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="211"/>
+      <c r="O23" s="211"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="211"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="211"/>
+      <c r="T23" s="211"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="211"/>
+      <c r="W23" s="211"/>
+      <c r="X23" s="211"/>
+      <c r="Y23" s="211"/>
+      <c r="Z23" s="211"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="212"/>
+      <c r="AC23" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="223"/>
-      <c r="AE23" s="221"/>
+      <c r="AD23" s="211"/>
+      <c r="AE23" s="212"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="220" t="s">
+      <c r="B24" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="234">
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213">
         <v>45070</v>
       </c>
-      <c r="G24" s="235"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="236"/>
-      <c r="J24" s="237" t="s">
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="238"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="238"/>
-      <c r="N24" s="238"/>
-      <c r="O24" s="238"/>
-      <c r="P24" s="238"/>
-      <c r="Q24" s="238"/>
-      <c r="R24" s="238"/>
-      <c r="S24" s="238"/>
-      <c r="T24" s="238"/>
-      <c r="U24" s="238"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="238"/>
-      <c r="X24" s="238"/>
-      <c r="Y24" s="238"/>
-      <c r="Z24" s="238"/>
-      <c r="AA24" s="238"/>
-      <c r="AB24" s="239"/>
-      <c r="AC24" s="220" t="s">
+      <c r="K24" s="217"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="217"/>
+      <c r="Q24" s="217"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="218"/>
+      <c r="AC24" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="221"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="212"/>
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="220" t="s">
+      <c r="B25" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="234">
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="213">
         <v>45079</v>
       </c>
-      <c r="G25" s="235"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="236"/>
-      <c r="J25" s="237" t="s">
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="238"/>
-      <c r="O25" s="238"/>
-      <c r="P25" s="238"/>
-      <c r="Q25" s="238"/>
-      <c r="R25" s="238"/>
-      <c r="S25" s="238"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="238"/>
-      <c r="V25" s="238"/>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="238"/>
-      <c r="Z25" s="238"/>
-      <c r="AA25" s="238"/>
-      <c r="AB25" s="239"/>
-      <c r="AC25" s="220" t="s">
+      <c r="K25" s="217"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="217"/>
+      <c r="Q25" s="217"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="217"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="217"/>
+      <c r="X25" s="217"/>
+      <c r="Y25" s="217"/>
+      <c r="Z25" s="217"/>
+      <c r="AA25" s="217"/>
+      <c r="AB25" s="218"/>
+      <c r="AC25" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="AD25" s="223"/>
-      <c r="AE25" s="221"/>
+      <c r="AD25" s="211"/>
+      <c r="AE25" s="212"/>
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="238"/>
-      <c r="S26" s="238"/>
-      <c r="T26" s="238"/>
-      <c r="U26" s="238"/>
-      <c r="V26" s="238"/>
-      <c r="W26" s="238"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="238"/>
-      <c r="Z26" s="238"/>
-      <c r="AA26" s="238"/>
-      <c r="AB26" s="239"/>
-      <c r="AC26" s="220"/>
-      <c r="AD26" s="223"/>
-      <c r="AE26" s="221"/>
+      <c r="B26" s="210" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213">
+        <v>45084</v>
+      </c>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="216" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="217"/>
+      <c r="Q26" s="217"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="218"/>
+      <c r="AC26" s="210" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD26" s="211"/>
+      <c r="AE26" s="212"/>
       <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="238"/>
-      <c r="S27" s="238"/>
-      <c r="T27" s="238"/>
-      <c r="U27" s="238"/>
-      <c r="V27" s="238"/>
-      <c r="W27" s="238"/>
-      <c r="X27" s="238"/>
-      <c r="Y27" s="238"/>
-      <c r="Z27" s="238"/>
-      <c r="AA27" s="238"/>
-      <c r="AB27" s="239"/>
-      <c r="AC27" s="220"/>
-      <c r="AD27" s="223"/>
-      <c r="AE27" s="221"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="217"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="217"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="218"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="211"/>
+      <c r="AE27" s="212"/>
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="236"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="238"/>
-      <c r="R28" s="238"/>
-      <c r="S28" s="238"/>
-      <c r="T28" s="238"/>
-      <c r="U28" s="238"/>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
-      <c r="X28" s="238"/>
-      <c r="Y28" s="238"/>
-      <c r="Z28" s="238"/>
-      <c r="AA28" s="238"/>
-      <c r="AB28" s="239"/>
-      <c r="AC28" s="220"/>
-      <c r="AD28" s="223"/>
-      <c r="AE28" s="221"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="217"/>
+      <c r="Q28" s="217"/>
+      <c r="R28" s="217"/>
+      <c r="S28" s="217"/>
+      <c r="T28" s="217"/>
+      <c r="U28" s="217"/>
+      <c r="V28" s="217"/>
+      <c r="W28" s="217"/>
+      <c r="X28" s="217"/>
+      <c r="Y28" s="217"/>
+      <c r="Z28" s="217"/>
+      <c r="AA28" s="217"/>
+      <c r="AB28" s="218"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="212"/>
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="238"/>
-      <c r="P29" s="238"/>
-      <c r="Q29" s="238"/>
-      <c r="R29" s="238"/>
-      <c r="S29" s="238"/>
-      <c r="T29" s="238"/>
-      <c r="U29" s="238"/>
-      <c r="V29" s="238"/>
-      <c r="W29" s="238"/>
-      <c r="X29" s="238"/>
-      <c r="Y29" s="238"/>
-      <c r="Z29" s="238"/>
-      <c r="AA29" s="238"/>
-      <c r="AB29" s="239"/>
-      <c r="AC29" s="220"/>
-      <c r="AD29" s="223"/>
-      <c r="AE29" s="221"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="217"/>
+      <c r="Q29" s="217"/>
+      <c r="R29" s="217"/>
+      <c r="S29" s="217"/>
+      <c r="T29" s="217"/>
+      <c r="U29" s="217"/>
+      <c r="V29" s="217"/>
+      <c r="W29" s="217"/>
+      <c r="X29" s="217"/>
+      <c r="Y29" s="217"/>
+      <c r="Z29" s="217"/>
+      <c r="AA29" s="217"/>
+      <c r="AB29" s="218"/>
+      <c r="AC29" s="210"/>
+      <c r="AD29" s="211"/>
+      <c r="AE29" s="212"/>
       <c r="AF29" s="4"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="236"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="238"/>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="238"/>
-      <c r="R30" s="238"/>
-      <c r="S30" s="238"/>
-      <c r="T30" s="238"/>
-      <c r="U30" s="238"/>
-      <c r="V30" s="238"/>
-      <c r="W30" s="238"/>
-      <c r="X30" s="238"/>
-      <c r="Y30" s="238"/>
-      <c r="Z30" s="238"/>
-      <c r="AA30" s="238"/>
-      <c r="AB30" s="239"/>
-      <c r="AC30" s="220"/>
-      <c r="AD30" s="223"/>
-      <c r="AE30" s="221"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="217"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="217"/>
+      <c r="Q30" s="217"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
+      <c r="V30" s="217"/>
+      <c r="W30" s="217"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="217"/>
+      <c r="Z30" s="217"/>
+      <c r="AA30" s="217"/>
+      <c r="AB30" s="218"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="211"/>
+      <c r="AE30" s="212"/>
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="236"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="238"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
-      <c r="N31" s="238"/>
-      <c r="O31" s="238"/>
-      <c r="P31" s="238"/>
-      <c r="Q31" s="238"/>
-      <c r="R31" s="238"/>
-      <c r="S31" s="238"/>
-      <c r="T31" s="238"/>
-      <c r="U31" s="238"/>
-      <c r="V31" s="238"/>
-      <c r="W31" s="238"/>
-      <c r="X31" s="238"/>
-      <c r="Y31" s="238"/>
-      <c r="Z31" s="238"/>
-      <c r="AA31" s="238"/>
-      <c r="AB31" s="239"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="223"/>
-      <c r="AE31" s="221"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="217"/>
+      <c r="Q31" s="217"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="217"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="218"/>
+      <c r="AC31" s="210"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="212"/>
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="236"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="238"/>
-      <c r="L32" s="238"/>
-      <c r="M32" s="238"/>
-      <c r="N32" s="238"/>
-      <c r="O32" s="238"/>
-      <c r="P32" s="238"/>
-      <c r="Q32" s="238"/>
-      <c r="R32" s="238"/>
-      <c r="S32" s="238"/>
-      <c r="T32" s="238"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="238"/>
-      <c r="W32" s="238"/>
-      <c r="X32" s="238"/>
-      <c r="Y32" s="238"/>
-      <c r="Z32" s="238"/>
-      <c r="AA32" s="238"/>
-      <c r="AB32" s="239"/>
-      <c r="AC32" s="220"/>
-      <c r="AD32" s="223"/>
-      <c r="AE32" s="221"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="217"/>
+      <c r="Q32" s="217"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="218"/>
+      <c r="AC32" s="210"/>
+      <c r="AD32" s="211"/>
+      <c r="AE32" s="212"/>
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="235"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="238"/>
-      <c r="O33" s="238"/>
-      <c r="P33" s="238"/>
-      <c r="Q33" s="238"/>
-      <c r="R33" s="238"/>
-      <c r="S33" s="238"/>
-      <c r="T33" s="238"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="238"/>
-      <c r="W33" s="238"/>
-      <c r="X33" s="238"/>
-      <c r="Y33" s="238"/>
-      <c r="Z33" s="238"/>
-      <c r="AA33" s="238"/>
-      <c r="AB33" s="239"/>
-      <c r="AC33" s="220"/>
-      <c r="AD33" s="223"/>
-      <c r="AE33" s="221"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="217"/>
+      <c r="Q33" s="217"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="218"/>
+      <c r="AC33" s="210"/>
+      <c r="AD33" s="211"/>
+      <c r="AE33" s="212"/>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6989,51 +7006,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -7045,6 +7017,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7068,8 +7085,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -7094,14 +7111,14 @@
       <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="240" t="s">
+      <c r="B2" s="255"/>
+      <c r="C2" s="252" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="241"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="99" t="s">
         <v>25</v>
       </c>
@@ -7110,14 +7127,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="240" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="241"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="99" t="s">
         <v>29</v>
       </c>
@@ -7126,26 +7143,26 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="240" t="s">
+      <c r="B4" s="255"/>
+      <c r="C4" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="241"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="99" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="188" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="243"/>
+      <c r="B5" s="255"/>
       <c r="C5" s="185" t="s">
         <v>33</v>
       </c>
@@ -7158,19 +7175,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="254" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="240" t="s">
+      <c r="B6" s="255"/>
+      <c r="C6" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="241"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="99" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="189">
-        <v>45079</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -7276,10 +7293,10 @@
       <c r="D13" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="244" t="s">
+      <c r="E13" s="250" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="245"/>
+      <c r="F13" s="251"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
@@ -7545,14 +7562,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -7562,6 +7571,14 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7579,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AD5FBC-45DA-4154-998D-C51CA91BDCD8}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7613,10 +7630,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="252" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="241"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="70" t="s">
         <v>25</v>
       </c>
@@ -7635,10 +7652,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="241"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="70" t="s">
         <v>34</v>
       </c>
@@ -7657,11 +7674,11 @@
         <v>30</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
       <c r="F4" s="69"/>
       <c r="G4" s="70" t="s">
         <v>13</v>
@@ -7685,11 +7702,11 @@
         <v>64</v>
       </c>
       <c r="B6" s="73"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
       <c r="H6" s="190"/>
@@ -7699,11 +7716,11 @@
         <v>41</v>
       </c>
       <c r="B7" s="73"/>
-      <c r="C7" s="240" t="s">
+      <c r="C7" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="190"/>
@@ -7713,11 +7730,11 @@
         <v>67</v>
       </c>
       <c r="B8" s="73"/>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="190"/>
@@ -7741,10 +7758,10 @@
       <c r="B10" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="285" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="254"/>
+      <c r="D10" s="286"/>
       <c r="E10" s="25" t="s">
         <v>73</v>
       </c>
@@ -7765,10 +7782,10 @@
       <c r="B11" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="288"/>
       <c r="E11" s="76" t="s">
         <v>79</v>
       </c>
@@ -7787,10 +7804,10 @@
       <c r="B12" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="255" t="s">
+      <c r="C12" s="281" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="282"/>
       <c r="E12" s="76" t="s">
         <v>84</v>
       </c>
@@ -7807,10 +7824,10 @@
       <c r="B13" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="281" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="76" t="s">
         <v>87</v>
       </c>
@@ -7827,10 +7844,10 @@
       <c r="B14" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="255" t="s">
+      <c r="C14" s="281" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="256"/>
+      <c r="D14" s="282"/>
       <c r="E14" s="76" t="s">
         <v>87</v>
       </c>
@@ -7847,10 +7864,10 @@
       <c r="B15" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="255" t="s">
+      <c r="C15" s="281" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="256"/>
+      <c r="D15" s="282"/>
       <c r="E15" s="76" t="s">
         <v>93</v>
       </c>
@@ -7861,8 +7878,8 @@
     <row r="16" spans="1:8">
       <c r="A16" s="74"/>
       <c r="B16" s="79"/>
-      <c r="C16" s="255"/>
-      <c r="D16" s="256"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="282"/>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="G16" s="77"/>
@@ -7871,8 +7888,8 @@
     <row r="17" spans="1:8">
       <c r="A17" s="74"/>
       <c r="B17" s="79"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="256"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="282"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="77"/>
@@ -7881,8 +7898,8 @@
     <row r="18" spans="1:8">
       <c r="A18" s="74"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="256"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -7891,8 +7908,8 @@
     <row r="19" spans="1:8">
       <c r="A19" s="74"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="256"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -7909,8 +7926,8 @@
     <row r="21" spans="1:8">
       <c r="A21" s="74"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="256"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -7919,8 +7936,8 @@
     <row r="22" spans="1:8">
       <c r="A22" s="74"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="256"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -7929,8 +7946,8 @@
     <row r="23" spans="1:8">
       <c r="A23" s="74"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="256"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="282"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -7939,8 +7956,8 @@
     <row r="24" spans="1:8">
       <c r="A24" s="74"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="256"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="282"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -7949,8 +7966,8 @@
     <row r="25" spans="1:8">
       <c r="A25" s="74"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="282"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -7959,8 +7976,8 @@
     <row r="26" spans="1:8">
       <c r="A26" s="74"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="256"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="282"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7969,8 +7986,8 @@
     <row r="27" spans="1:8">
       <c r="A27" s="74"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="256"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="282"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -7979,8 +7996,8 @@
     <row r="28" spans="1:8">
       <c r="A28" s="74"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="256"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="282"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -7989,8 +8006,8 @@
     <row r="29" spans="1:8">
       <c r="A29" s="74"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="256"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="282"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -7999,8 +8016,8 @@
     <row r="30" spans="1:8">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="261"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="83"/>
@@ -8032,10 +8049,10 @@
       <c r="A33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="270"/>
       <c r="D33" s="29" t="s">
         <v>96</v>
       </c>
@@ -8050,51 +8067,51 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="87"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="275"/>
       <c r="G34" s="88"/>
       <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="90"/>
-      <c r="B35" s="259"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="263"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="257"/>
+      <c r="F35" s="258"/>
       <c r="G35" s="92"/>
       <c r="H35" s="93"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="90"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="263"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="277"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="258"/>
       <c r="G36" s="92"/>
       <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="90"/>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="262"/>
-      <c r="F37" s="263"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="258"/>
       <c r="G37" s="92"/>
       <c r="H37" s="93"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="80"/>
-      <c r="B38" s="273"/>
-      <c r="C38" s="274"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="265"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="261"/>
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
     </row>
@@ -8127,15 +8144,15 @@
       <c r="B41" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="266" t="s">
+      <c r="C41" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="276"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="266" t="s">
+      <c r="D41" s="269"/>
+      <c r="E41" s="270"/>
+      <c r="F41" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="277"/>
+      <c r="G41" s="280"/>
       <c r="H41" s="33" t="s">
         <v>101</v>
       </c>
@@ -8143,51 +8160,51 @@
     <row r="42" spans="1:8">
       <c r="A42" s="34"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="274"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="275"/>
       <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="37"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="262"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="261"/>
-      <c r="G43" s="263"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="258"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="261"/>
-      <c r="G44" s="263"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="258"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="258"/>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="262"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="261"/>
-      <c r="G45" s="263"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="258"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="258"/>
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="264"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="278"/>
-      <c r="G46" s="279"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="267"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8">
@@ -8219,15 +8236,15 @@
       <c r="B49" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="266" t="s">
+      <c r="C49" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="276"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="280" t="s">
+      <c r="D49" s="269"/>
+      <c r="E49" s="270"/>
+      <c r="F49" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="281"/>
+      <c r="G49" s="272"/>
       <c r="H49" s="200" t="s">
         <v>104</v>
       </c>
@@ -8235,15 +8252,15 @@
     <row r="50" spans="1:9" ht="13.2" customHeight="1">
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
-      <c r="C50" s="283" t="s">
+      <c r="C50" s="264" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="284"/>
-      <c r="E50" s="285"/>
-      <c r="F50" s="283" t="s">
+      <c r="D50" s="265"/>
+      <c r="E50" s="266"/>
+      <c r="F50" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="284"/>
+      <c r="G50" s="265"/>
       <c r="H50" s="201" t="s">
         <v>105</v>
       </c>
@@ -8252,86 +8269,51 @@
     <row r="51" spans="1:9">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="263"/>
-      <c r="F51" s="261"/>
-      <c r="G51" s="262"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="256"/>
+      <c r="G51" s="257"/>
       <c r="H51" s="202"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="263"/>
-      <c r="F52" s="261"/>
-      <c r="G52" s="262"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="257"/>
+      <c r="E52" s="258"/>
+      <c r="F52" s="256"/>
+      <c r="G52" s="257"/>
       <c r="H52" s="202"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="262"/>
-      <c r="E53" s="263"/>
-      <c r="F53" s="261"/>
-      <c r="G53" s="262"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="257"/>
       <c r="H53" s="202"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="265"/>
-      <c r="F54" s="278"/>
-      <c r="G54" s="282"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="262"/>
+      <c r="G54" s="263"/>
       <c r="H54" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C11:D11"/>
@@ -8346,12 +8328,47 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8396,10 +8413,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="241"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="70" t="s">
         <v>25</v>
       </c>
@@ -8418,10 +8435,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="241"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="70" t="s">
         <v>34</v>
       </c>
@@ -8436,10 +8453,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="252"/>
+      <c r="D4" s="289"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="70" t="s">
@@ -8464,11 +8481,11 @@
         <v>64</v>
       </c>
       <c r="B6" s="73"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
       <c r="H6" s="190"/>
@@ -8478,11 +8495,11 @@
         <v>41</v>
       </c>
       <c r="B7" s="73"/>
-      <c r="C7" s="240" t="s">
+      <c r="C7" s="252" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="190"/>
@@ -8492,11 +8509,11 @@
         <v>67</v>
       </c>
       <c r="B8" s="73"/>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="190"/>
@@ -8520,10 +8537,10 @@
       <c r="B10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="280" t="s">
+      <c r="C10" s="271" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="289"/>
+      <c r="D10" s="290"/>
       <c r="E10" s="25" t="s">
         <v>73</v>
       </c>
@@ -8544,10 +8561,10 @@
       <c r="B11" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="288"/>
       <c r="E11" s="76" t="s">
         <v>79</v>
       </c>
@@ -8566,10 +8583,10 @@
       <c r="B12" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="255" t="s">
+      <c r="C12" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="282"/>
       <c r="E12" s="76" t="s">
         <v>84</v>
       </c>
@@ -8582,8 +8599,8 @@
     <row r="13" spans="1:8">
       <c r="A13" s="90"/>
       <c r="B13" s="91"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="76"/>
       <c r="F13" s="110"/>
       <c r="G13" s="92"/>
@@ -8592,8 +8609,8 @@
     <row r="14" spans="1:8">
       <c r="A14" s="74"/>
       <c r="B14" s="79"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="256"/>
+      <c r="C14" s="281"/>
+      <c r="D14" s="282"/>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
       <c r="G14" s="77"/>
@@ -8602,8 +8619,8 @@
     <row r="15" spans="1:8">
       <c r="A15" s="74"/>
       <c r="B15" s="79"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="282"/>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -8612,8 +8629,8 @@
     <row r="16" spans="1:8">
       <c r="A16" s="74"/>
       <c r="B16" s="79"/>
-      <c r="C16" s="255"/>
-      <c r="D16" s="256"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="282"/>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="G16" s="77"/>
@@ -8622,8 +8639,8 @@
     <row r="17" spans="1:8">
       <c r="A17" s="74"/>
       <c r="B17" s="79"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="256"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="282"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="77"/>
@@ -8632,8 +8649,8 @@
     <row r="18" spans="1:8">
       <c r="A18" s="74"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="256"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -8642,8 +8659,8 @@
     <row r="19" spans="1:8">
       <c r="A19" s="74"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="256"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -8652,8 +8669,8 @@
     <row r="20" spans="1:8">
       <c r="A20" s="74"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="256"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -8662,8 +8679,8 @@
     <row r="21" spans="1:8">
       <c r="A21" s="74"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="256"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -8672,8 +8689,8 @@
     <row r="22" spans="1:8">
       <c r="A22" s="74"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="256"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -8682,8 +8699,8 @@
     <row r="23" spans="1:8">
       <c r="A23" s="74"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="256"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="282"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -8692,8 +8709,8 @@
     <row r="24" spans="1:8">
       <c r="A24" s="74"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="256"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="282"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -8702,8 +8719,8 @@
     <row r="25" spans="1:8">
       <c r="A25" s="74"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="282"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -8712,8 +8729,8 @@
     <row r="26" spans="1:8">
       <c r="A26" s="74"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="256"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="282"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -8722,8 +8739,8 @@
     <row r="27" spans="1:8">
       <c r="A27" s="74"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="256"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="282"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -8732,8 +8749,8 @@
     <row r="28" spans="1:8">
       <c r="A28" s="74"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="256"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="282"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -8742,8 +8759,8 @@
     <row r="29" spans="1:8">
       <c r="A29" s="74"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="256"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="282"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -8752,8 +8769,8 @@
     <row r="30" spans="1:8">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="261"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="83"/>
@@ -8785,10 +8802,10 @@
       <c r="A33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="270"/>
       <c r="D33" s="29" t="s">
         <v>96</v>
       </c>
@@ -8803,51 +8820,51 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="87"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="275"/>
       <c r="G34" s="88"/>
       <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="90"/>
-      <c r="B35" s="259"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="263"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="257"/>
+      <c r="F35" s="258"/>
       <c r="G35" s="92"/>
       <c r="H35" s="93"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="90"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="263"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="277"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="258"/>
       <c r="G36" s="92"/>
       <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="90"/>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="262"/>
-      <c r="F37" s="263"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="258"/>
       <c r="G37" s="92"/>
       <c r="H37" s="93"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="80"/>
-      <c r="B38" s="273"/>
-      <c r="C38" s="274"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="265"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="261"/>
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
     </row>
@@ -8881,15 +8898,15 @@
       <c r="B41" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="266" t="s">
+      <c r="C41" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="276"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="266" t="s">
+      <c r="D41" s="269"/>
+      <c r="E41" s="270"/>
+      <c r="F41" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="277"/>
+      <c r="G41" s="280"/>
       <c r="H41" s="33" t="s">
         <v>101</v>
       </c>
@@ -8897,51 +8914,51 @@
     <row r="42" spans="1:10">
       <c r="A42" s="34"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="274"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="275"/>
       <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="37"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="262"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="261"/>
-      <c r="G43" s="263"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="258"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="261"/>
-      <c r="G44" s="263"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="258"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="258"/>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="262"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="261"/>
-      <c r="G45" s="263"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="258"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="258"/>
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="264"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="278"/>
-      <c r="G46" s="279"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="267"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10">
@@ -8973,16 +8990,16 @@
       <c r="B49" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="266" t="s">
+      <c r="C49" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="276"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="266" t="s">
+      <c r="D49" s="269"/>
+      <c r="E49" s="269"/>
+      <c r="F49" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="277"/>
-      <c r="H49" s="365" t="s">
+      <c r="G49" s="280"/>
+      <c r="H49" s="205" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8991,16 +9008,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="108"/>
-      <c r="C50" s="361" t="s">
+      <c r="C50" s="291" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="362"/>
-      <c r="E50" s="362"/>
-      <c r="F50" s="363" t="s">
+      <c r="D50" s="292"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="293" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="364"/>
-      <c r="H50" s="366" t="s">
+      <c r="G50" s="294"/>
+      <c r="H50" s="206" t="s">
         <v>116</v>
       </c>
       <c r="I50" s="27"/>
@@ -9009,91 +9026,45 @@
     <row r="51" spans="1:10">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="262"/>
-      <c r="F51" s="287"/>
-      <c r="G51" s="357"/>
-      <c r="H51" s="367"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="257"/>
+      <c r="F51" s="295"/>
+      <c r="G51" s="296"/>
+      <c r="H51" s="207"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="262"/>
-      <c r="F52" s="288"/>
-      <c r="G52" s="358"/>
-      <c r="H52" s="368"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="257"/>
+      <c r="E52" s="257"/>
+      <c r="F52" s="297"/>
+      <c r="G52" s="298"/>
+      <c r="H52" s="208"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="262"/>
-      <c r="E53" s="262"/>
-      <c r="F53" s="359"/>
-      <c r="G53" s="360"/>
-      <c r="H53" s="369"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="257"/>
+      <c r="F53" s="300"/>
+      <c r="G53" s="301"/>
+      <c r="H53" s="209"/>
     </row>
     <row r="54" spans="1:10" ht="13.8" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="275"/>
-      <c r="F54" s="278"/>
-      <c r="G54" s="279"/>
-      <c r="H54" s="356"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="260"/>
+      <c r="F54" s="262"/>
+      <c r="G54" s="267"/>
+      <c r="H54" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -9110,6 +9081,52 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9157,10 +9174,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="290" t="s">
+      <c r="C2" s="308" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="291"/>
+      <c r="D2" s="347"/>
       <c r="E2" s="116" t="s">
         <v>25</v>
       </c>
@@ -9179,10 +9196,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="290" t="s">
+      <c r="C3" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="347"/>
       <c r="E3" s="116" t="s">
         <v>34</v>
       </c>
@@ -9201,11 +9218,11 @@
         <v>30</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="308" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
       <c r="F4" s="21"/>
       <c r="G4" s="116" t="s">
         <v>13</v>
@@ -9229,12 +9246,12 @@
         <v>64</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="308" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
       <c r="G6" s="186"/>
       <c r="H6" s="187"/>
     </row>
@@ -9243,12 +9260,12 @@
         <v>41</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
       <c r="G7" s="186"/>
       <c r="H7" s="187"/>
     </row>
@@ -9257,12 +9274,12 @@
         <v>67</v>
       </c>
       <c r="B8" s="22"/>
-      <c r="C8" s="290" t="s">
+      <c r="C8" s="308" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
       <c r="G8" s="186"/>
       <c r="H8" s="187"/>
     </row>
@@ -9285,10 +9302,10 @@
       <c r="B10" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="311" t="s">
+      <c r="C10" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="331"/>
+      <c r="D10" s="305"/>
       <c r="E10" s="120" t="s">
         <v>73</v>
       </c>
@@ -9309,10 +9326,10 @@
       <c r="B11" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="332" t="s">
+      <c r="C11" s="306" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="333"/>
+      <c r="D11" s="307"/>
       <c r="E11" s="124" t="s">
         <v>79</v>
       </c>
@@ -9331,10 +9348,10 @@
       <c r="B12" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="315" t="s">
+      <c r="C12" s="302" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="325"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="124" t="s">
         <v>79</v>
       </c>
@@ -9353,10 +9370,10 @@
       <c r="B13" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="315" t="s">
+      <c r="C13" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="325"/>
+      <c r="D13" s="303"/>
       <c r="E13" s="133" t="s">
         <v>93</v>
       </c>
@@ -9373,10 +9390,10 @@
       <c r="B14" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="315" t="s">
+      <c r="C14" s="302" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="325"/>
+      <c r="D14" s="303"/>
       <c r="E14" s="124" t="s">
         <v>129</v>
       </c>
@@ -9393,10 +9410,10 @@
       <c r="B15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="315" t="s">
+      <c r="C15" s="302" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="325"/>
+      <c r="D15" s="303"/>
       <c r="E15" s="124" t="s">
         <v>131</v>
       </c>
@@ -9411,8 +9428,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="134"/>
       <c r="B16" s="135"/>
-      <c r="C16" s="334"/>
-      <c r="D16" s="335"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="311"/>
       <c r="E16" s="124"/>
       <c r="F16" s="138"/>
       <c r="G16" s="136"/>
@@ -9421,8 +9438,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="134"/>
       <c r="B17" s="135"/>
-      <c r="C17" s="315"/>
-      <c r="D17" s="325"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="303"/>
       <c r="E17" s="138"/>
       <c r="F17" s="138"/>
       <c r="G17" s="136"/>
@@ -9431,8 +9448,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="134"/>
       <c r="B18" s="135"/>
-      <c r="C18" s="315"/>
-      <c r="D18" s="325"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="303"/>
       <c r="E18" s="138"/>
       <c r="F18" s="138"/>
       <c r="G18" s="136"/>
@@ -9441,8 +9458,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="134"/>
       <c r="B19" s="135"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="325"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="303"/>
       <c r="E19" s="138"/>
       <c r="F19" s="138"/>
       <c r="G19" s="136"/>
@@ -9451,8 +9468,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
-      <c r="C20" s="315"/>
-      <c r="D20" s="325"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="303"/>
       <c r="E20" s="138"/>
       <c r="F20" s="138"/>
       <c r="G20" s="136"/>
@@ -9461,8 +9478,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="134"/>
       <c r="B21" s="135"/>
-      <c r="C21" s="315"/>
-      <c r="D21" s="325"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303"/>
       <c r="E21" s="138"/>
       <c r="F21" s="138"/>
       <c r="G21" s="136"/>
@@ -9471,8 +9488,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="134"/>
       <c r="B22" s="135"/>
-      <c r="C22" s="315"/>
-      <c r="D22" s="325"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="303"/>
       <c r="E22" s="138"/>
       <c r="F22" s="138"/>
       <c r="G22" s="136"/>
@@ -9481,8 +9498,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="134"/>
       <c r="B23" s="135"/>
-      <c r="C23" s="315"/>
-      <c r="D23" s="325"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="303"/>
       <c r="E23" s="138"/>
       <c r="F23" s="138"/>
       <c r="G23" s="136"/>
@@ -9491,8 +9508,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="134"/>
       <c r="B24" s="135"/>
-      <c r="C24" s="315"/>
-      <c r="D24" s="325"/>
+      <c r="C24" s="302"/>
+      <c r="D24" s="303"/>
       <c r="E24" s="138"/>
       <c r="F24" s="138"/>
       <c r="G24" s="136"/>
@@ -9501,8 +9518,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="134"/>
       <c r="B25" s="135"/>
-      <c r="C25" s="315"/>
-      <c r="D25" s="325"/>
+      <c r="C25" s="302"/>
+      <c r="D25" s="303"/>
       <c r="E25" s="138"/>
       <c r="F25" s="138"/>
       <c r="G25" s="136"/>
@@ -9511,8 +9528,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="134"/>
       <c r="B26" s="135"/>
-      <c r="C26" s="315"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="303"/>
       <c r="E26" s="138"/>
       <c r="F26" s="138"/>
       <c r="G26" s="136"/>
@@ -9521,8 +9538,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="134"/>
       <c r="B27" s="135"/>
-      <c r="C27" s="315"/>
-      <c r="D27" s="325"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="303"/>
       <c r="E27" s="138"/>
       <c r="F27" s="138"/>
       <c r="G27" s="136"/>
@@ -9531,8 +9548,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="134"/>
       <c r="B28" s="135"/>
-      <c r="C28" s="315"/>
-      <c r="D28" s="325"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="303"/>
       <c r="E28" s="138"/>
       <c r="F28" s="138"/>
       <c r="G28" s="136"/>
@@ -9541,8 +9558,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="139"/>
       <c r="B29" s="140"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="298"/>
+      <c r="C29" s="317"/>
+      <c r="D29" s="318"/>
       <c r="E29" s="141"/>
       <c r="F29" s="141"/>
       <c r="G29" s="142"/>
@@ -9574,10 +9591,10 @@
       <c r="A32" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="308" t="s">
+      <c r="B32" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="310"/>
+      <c r="C32" s="320"/>
       <c r="D32" s="148" t="s">
         <v>96</v>
       </c>
@@ -9592,51 +9609,51 @@
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="122"/>
-      <c r="B33" s="326"/>
-      <c r="C33" s="327"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="329"/>
-      <c r="F33" s="330"/>
+      <c r="B33" s="321"/>
+      <c r="C33" s="322"/>
+      <c r="D33" s="323"/>
+      <c r="E33" s="324"/>
+      <c r="F33" s="325"/>
       <c r="G33" s="126"/>
       <c r="H33" s="127"/>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="128"/>
-      <c r="B34" s="319"/>
-      <c r="C34" s="320"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="295"/>
+      <c r="B34" s="312"/>
+      <c r="C34" s="313"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="315"/>
+      <c r="F34" s="316"/>
       <c r="G34" s="131"/>
       <c r="H34" s="132"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="319"/>
-      <c r="C35" s="320"/>
-      <c r="D35" s="293"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="295"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="315"/>
+      <c r="F35" s="316"/>
       <c r="G35" s="131"/>
       <c r="H35" s="132"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="128"/>
-      <c r="B36" s="319"/>
-      <c r="C36" s="320"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="295"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="313"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="316"/>
       <c r="G36" s="131"/>
       <c r="H36" s="132"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="139"/>
-      <c r="B37" s="321"/>
-      <c r="C37" s="322"/>
-      <c r="D37" s="296"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="298"/>
+      <c r="B37" s="326"/>
+      <c r="C37" s="327"/>
+      <c r="D37" s="317"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="318"/>
       <c r="G37" s="142"/>
       <c r="H37" s="143"/>
     </row>
@@ -9669,15 +9686,15 @@
       <c r="B40" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="308" t="s">
+      <c r="C40" s="319" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="323" t="s">
+      <c r="D40" s="329"/>
+      <c r="E40" s="329"/>
+      <c r="F40" s="330" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="324"/>
+      <c r="G40" s="331"/>
       <c r="H40" s="198" t="s">
         <v>101</v>
       </c>
@@ -9687,15 +9704,15 @@
         <v>1</v>
       </c>
       <c r="B41" s="154"/>
-      <c r="C41" s="301" t="s">
+      <c r="C41" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="302"/>
-      <c r="E41" s="302"/>
-      <c r="F41" s="313" t="s">
+      <c r="D41" s="333"/>
+      <c r="E41" s="333"/>
+      <c r="F41" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="314"/>
+      <c r="G41" s="335"/>
       <c r="H41" s="193" t="s">
         <v>105</v>
       </c>
@@ -9705,15 +9722,15 @@
         <v>2</v>
       </c>
       <c r="B42" s="156"/>
-      <c r="C42" s="315" t="s">
+      <c r="C42" s="302" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="316"/>
-      <c r="E42" s="316"/>
-      <c r="F42" s="317" t="s">
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="318"/>
+      <c r="G42" s="338"/>
       <c r="H42" s="194" t="s">
         <v>116</v>
       </c>
@@ -9722,31 +9739,31 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="155"/>
       <c r="B43" s="156"/>
-      <c r="C43" s="293"/>
-      <c r="D43" s="294"/>
-      <c r="E43" s="294"/>
-      <c r="F43" s="304"/>
-      <c r="G43" s="305"/>
+      <c r="C43" s="314"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="315"/>
+      <c r="F43" s="339"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="195"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="155"/>
       <c r="B44" s="156"/>
-      <c r="C44" s="293"/>
-      <c r="D44" s="294"/>
-      <c r="E44" s="294"/>
-      <c r="F44" s="304"/>
-      <c r="G44" s="305"/>
+      <c r="C44" s="314"/>
+      <c r="D44" s="315"/>
+      <c r="E44" s="315"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="340"/>
       <c r="H44" s="196"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="158"/>
       <c r="B45" s="159"/>
-      <c r="C45" s="296"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="306"/>
-      <c r="G45" s="307"/>
+      <c r="C45" s="317"/>
+      <c r="D45" s="328"/>
+      <c r="E45" s="328"/>
+      <c r="F45" s="341"/>
+      <c r="G45" s="342"/>
       <c r="H45" s="197"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1">
@@ -9778,15 +9795,15 @@
       <c r="B48" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="308" t="s">
+      <c r="C48" s="319" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="309"/>
-      <c r="E48" s="310"/>
-      <c r="F48" s="311" t="s">
+      <c r="D48" s="329"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="312"/>
+      <c r="G48" s="343"/>
       <c r="H48" s="121" t="s">
         <v>104</v>
       </c>
@@ -9796,15 +9813,15 @@
         <v>1</v>
       </c>
       <c r="B49" s="153"/>
-      <c r="C49" s="301" t="s">
+      <c r="C49" s="332" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="302"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="301" t="s">
+      <c r="D49" s="333"/>
+      <c r="E49" s="346"/>
+      <c r="F49" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="303"/>
+      <c r="G49" s="346"/>
       <c r="H49" s="162" t="s">
         <v>133</v>
       </c>
@@ -9812,45 +9829,91 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="155"/>
       <c r="B50" s="156"/>
-      <c r="C50" s="293"/>
-      <c r="D50" s="294"/>
-      <c r="E50" s="295"/>
-      <c r="F50" s="293"/>
-      <c r="G50" s="295"/>
+      <c r="C50" s="314"/>
+      <c r="D50" s="315"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="314"/>
+      <c r="G50" s="316"/>
       <c r="H50" s="157"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="155"/>
       <c r="B51" s="156"/>
-      <c r="C51" s="293"/>
-      <c r="D51" s="294"/>
-      <c r="E51" s="295"/>
-      <c r="F51" s="293"/>
-      <c r="G51" s="295"/>
+      <c r="C51" s="314"/>
+      <c r="D51" s="315"/>
+      <c r="E51" s="316"/>
+      <c r="F51" s="314"/>
+      <c r="G51" s="316"/>
       <c r="H51" s="157"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="155"/>
       <c r="B52" s="156"/>
-      <c r="C52" s="293"/>
-      <c r="D52" s="294"/>
-      <c r="E52" s="295"/>
-      <c r="F52" s="293"/>
-      <c r="G52" s="295"/>
+      <c r="C52" s="314"/>
+      <c r="D52" s="315"/>
+      <c r="E52" s="316"/>
+      <c r="F52" s="314"/>
+      <c r="G52" s="316"/>
       <c r="H52" s="157"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="158"/>
       <c r="B53" s="159"/>
-      <c r="C53" s="296"/>
-      <c r="D53" s="297"/>
-      <c r="E53" s="298"/>
-      <c r="F53" s="299"/>
-      <c r="G53" s="300"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="328"/>
+      <c r="E53" s="318"/>
+      <c r="F53" s="344"/>
+      <c r="G53" s="345"/>
       <c r="H53" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -9866,52 +9929,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9926,7 +9943,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -9958,10 +9975,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="240" t="s">
+      <c r="C2" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="241"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="70" t="s">
         <v>25</v>
       </c>
@@ -9980,10 +9997,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="65"/>
-      <c r="C3" s="240" t="s">
+      <c r="C3" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="241"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="70" t="s">
         <v>34</v>
       </c>
@@ -10002,11 +10019,11 @@
         <v>30</v>
       </c>
       <c r="B4" s="65"/>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="252" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
       <c r="F4" s="69"/>
       <c r="G4" s="70" t="s">
         <v>13</v>
@@ -10030,42 +10047,42 @@
         <v>64</v>
       </c>
       <c r="B6" s="73"/>
-      <c r="C6" s="336" t="s">
+      <c r="C6" s="349" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="338"/>
+      <c r="D6" s="350"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="350"/>
+      <c r="G6" s="350"/>
+      <c r="H6" s="351"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="73"/>
-      <c r="C7" s="336" t="s">
+      <c r="C7" s="349" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="338"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
+      <c r="H7" s="351"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="73"/>
-      <c r="C8" s="336" t="s">
+      <c r="C8" s="349" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="337"/>
-      <c r="E8" s="337"/>
-      <c r="F8" s="337"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="338"/>
+      <c r="D8" s="350"/>
+      <c r="E8" s="350"/>
+      <c r="F8" s="350"/>
+      <c r="G8" s="350"/>
+      <c r="H8" s="351"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="23" t="s">
@@ -10086,10 +10103,10 @@
       <c r="B10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="280" t="s">
+      <c r="C10" s="271" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="289"/>
+      <c r="D10" s="290"/>
       <c r="E10" s="25" t="s">
         <v>73</v>
       </c>
@@ -10110,10 +10127,10 @@
       <c r="B11" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="287" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="288"/>
       <c r="E11" s="109" t="s">
         <v>131</v>
       </c>
@@ -10132,10 +10149,10 @@
       <c r="B12" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="255" t="s">
+      <c r="C12" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="282"/>
       <c r="E12" s="76" t="s">
         <v>79</v>
       </c>
@@ -10154,10 +10171,10 @@
       <c r="B13" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="281" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="76" t="s">
         <v>79</v>
       </c>
@@ -10176,10 +10193,10 @@
       <c r="B14" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="255" t="s">
+      <c r="C14" s="281" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="256"/>
+      <c r="D14" s="282"/>
       <c r="E14" s="110" t="s">
         <v>93</v>
       </c>
@@ -10190,8 +10207,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="74"/>
       <c r="B15" s="79"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
+      <c r="C15" s="281"/>
+      <c r="D15" s="282"/>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
@@ -10200,8 +10217,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="74"/>
       <c r="B16" s="79"/>
-      <c r="C16" s="255"/>
-      <c r="D16" s="256"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="282"/>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
       <c r="G16" s="77"/>
@@ -10210,8 +10227,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="74"/>
       <c r="B17" s="79"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="256"/>
+      <c r="C17" s="281"/>
+      <c r="D17" s="282"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="77"/>
@@ -10220,8 +10237,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="74"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="256"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="282"/>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
       <c r="G18" s="77"/>
@@ -10230,8 +10247,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="74"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="255"/>
-      <c r="D19" s="256"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="77"/>
@@ -10240,8 +10257,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="74"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="256"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
       <c r="G20" s="77"/>
@@ -10250,8 +10267,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="74"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="256"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
       <c r="G21" s="77"/>
@@ -10260,8 +10277,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="74"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="256"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
       <c r="G22" s="77"/>
@@ -10270,8 +10287,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="74"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="256"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="282"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
       <c r="G23" s="77"/>
@@ -10280,8 +10297,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="74"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="256"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="282"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
       <c r="G24" s="77"/>
@@ -10290,8 +10307,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="282"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -10300,8 +10317,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="256"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="282"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10310,8 +10327,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="74"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="256"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="282"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="77"/>
@@ -10320,8 +10337,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="74"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="256"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="282"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -10330,8 +10347,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="74"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="256"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="282"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -10340,8 +10357,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="261"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
       <c r="G30" s="83"/>
@@ -10373,10 +10390,10 @@
       <c r="A33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="270"/>
       <c r="D33" s="29" t="s">
         <v>96</v>
       </c>
@@ -10391,51 +10408,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="87"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="275"/>
       <c r="G34" s="88"/>
       <c r="H34" s="89"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="90"/>
-      <c r="B35" s="259"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="263"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="257"/>
+      <c r="F35" s="258"/>
       <c r="G35" s="92"/>
       <c r="H35" s="93"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="90"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="263"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="277"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="258"/>
       <c r="G36" s="92"/>
       <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="90"/>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="262"/>
-      <c r="F37" s="263"/>
+      <c r="B37" s="276"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="258"/>
       <c r="G37" s="92"/>
       <c r="H37" s="93"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="80"/>
-      <c r="B38" s="273"/>
-      <c r="C38" s="274"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="265"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="261"/>
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
     </row>
@@ -10468,15 +10485,15 @@
       <c r="B41" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="266" t="s">
+      <c r="C41" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="276"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="266" t="s">
+      <c r="D41" s="269"/>
+      <c r="E41" s="270"/>
+      <c r="F41" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="277"/>
+      <c r="G41" s="280"/>
       <c r="H41" s="33" t="s">
         <v>101</v>
       </c>
@@ -10484,51 +10501,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="34"/>
       <c r="B42" s="35"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="271"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="273"/>
+      <c r="D42" s="274"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="275"/>
       <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="262"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="261"/>
-      <c r="G43" s="263"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="258"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="261"/>
-      <c r="G44" s="263"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="258"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="258"/>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="262"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="261"/>
-      <c r="G45" s="263"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="258"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="258"/>
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="264"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="278"/>
-      <c r="G46" s="279"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="267"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10560,15 +10577,15 @@
       <c r="B49" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="266" t="s">
+      <c r="C49" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="276"/>
-      <c r="E49" s="267"/>
-      <c r="F49" s="280" t="s">
+      <c r="D49" s="269"/>
+      <c r="E49" s="270"/>
+      <c r="F49" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="339"/>
+      <c r="G49" s="348"/>
       <c r="H49" s="26" t="s">
         <v>104</v>
       </c>
@@ -10576,83 +10593,76 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="285"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="285"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="265"/>
+      <c r="E50" s="266"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="266"/>
       <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="263"/>
-      <c r="F51" s="261"/>
-      <c r="G51" s="263"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="256"/>
+      <c r="G51" s="258"/>
       <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="263"/>
-      <c r="F52" s="261"/>
-      <c r="G52" s="263"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="257"/>
+      <c r="E52" s="258"/>
+      <c r="F52" s="256"/>
+      <c r="G52" s="258"/>
       <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="262"/>
-      <c r="E53" s="263"/>
-      <c r="F53" s="261"/>
-      <c r="G53" s="263"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="258"/>
       <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="275"/>
-      <c r="E54" s="265"/>
-      <c r="F54" s="278"/>
-      <c r="G54" s="279"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="262"/>
+      <c r="G54" s="267"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -10666,27 +10676,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10741,74 +10758,74 @@
       <c r="A2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="356" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="348"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="357"/>
       <c r="H2" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="347" t="s">
+      <c r="I2" s="356" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="348"/>
+      <c r="J2" s="357"/>
       <c r="K2" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="343">
+      <c r="L2" s="352">
         <v>45072</v>
       </c>
-      <c r="M2" s="344"/>
+      <c r="M2" s="353"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="347" t="s">
+      <c r="B3" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352"/>
-      <c r="G3" s="348"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="357"/>
       <c r="H3" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="347"/>
-      <c r="J3" s="348"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="357"/>
       <c r="K3" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="345"/>
-      <c r="M3" s="346"/>
+      <c r="L3" s="354"/>
+      <c r="M3" s="355"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="308" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="347" t="s">
+      <c r="L4" s="356" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="348"/>
+      <c r="M4" s="357"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10"/>
@@ -10828,14 +10845,14 @@
       <c r="A6" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="356" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="352"/>
-      <c r="D6" s="352"/>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
+      <c r="C6" s="364"/>
+      <c r="D6" s="364"/>
+      <c r="E6" s="364"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -10847,14 +10864,14 @@
       <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="356" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="352"/>
-      <c r="D7" s="352"/>
-      <c r="E7" s="352"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="352"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="364"/>
+      <c r="E7" s="364"/>
+      <c r="F7" s="364"/>
+      <c r="G7" s="364"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -10869,14 +10886,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="165"/>
       <c r="F9" s="166"/>
-      <c r="G9" s="349" t="s">
+      <c r="G9" s="358" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="351"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="360"/>
       <c r="M9" s="166"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -10904,15 +10921,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="165"/>
-      <c r="B11" s="353" t="s">
+      <c r="B11" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="340" t="s">
+      <c r="C11" s="361" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="341"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="342"/>
+      <c r="D11" s="362"/>
+      <c r="E11" s="362"/>
+      <c r="F11" s="363"/>
       <c r="G11" s="170" t="s">
         <v>158</v>
       </c>
@@ -10925,13 +10942,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="165"/>
-      <c r="B12" s="354"/>
-      <c r="C12" s="340" t="s">
+      <c r="B12" s="366"/>
+      <c r="C12" s="361" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="341"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="342"/>
+      <c r="D12" s="362"/>
+      <c r="E12" s="362"/>
+      <c r="F12" s="363"/>
       <c r="G12" s="170" t="s">
         <v>160</v>
       </c>
@@ -10944,13 +10961,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="165"/>
-      <c r="B13" s="354"/>
-      <c r="C13" s="340" t="s">
+      <c r="B13" s="366"/>
+      <c r="C13" s="361" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="341"/>
-      <c r="E13" s="341"/>
-      <c r="F13" s="342"/>
+      <c r="D13" s="362"/>
+      <c r="E13" s="362"/>
+      <c r="F13" s="363"/>
       <c r="G13" s="170"/>
       <c r="H13" s="170" t="s">
         <v>158</v>
@@ -10965,13 +10982,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="165"/>
-      <c r="B14" s="354"/>
-      <c r="C14" s="340" t="s">
+      <c r="B14" s="366"/>
+      <c r="C14" s="361" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="342"/>
+      <c r="D14" s="362"/>
+      <c r="E14" s="362"/>
+      <c r="F14" s="363"/>
       <c r="G14" s="170"/>
       <c r="H14" s="170"/>
       <c r="I14" s="170"/>
@@ -10984,13 +11001,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="165"/>
-      <c r="B15" s="354"/>
-      <c r="C15" s="340" t="s">
+      <c r="B15" s="366"/>
+      <c r="C15" s="361" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="341"/>
-      <c r="E15" s="341"/>
-      <c r="F15" s="342"/>
+      <c r="D15" s="362"/>
+      <c r="E15" s="362"/>
+      <c r="F15" s="363"/>
       <c r="G15" s="170" t="s">
         <v>166</v>
       </c>
@@ -11003,7 +11020,7 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="165"/>
-      <c r="B16" s="354"/>
+      <c r="B16" s="366"/>
       <c r="C16" s="171"/>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -11018,7 +11035,7 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="165"/>
-      <c r="B17" s="354"/>
+      <c r="B17" s="366"/>
       <c r="C17" s="171"/>
       <c r="D17" s="117"/>
       <c r="E17" s="117"/>
@@ -11033,11 +11050,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="165"/>
-      <c r="B18" s="354"/>
-      <c r="C18" s="340"/>
-      <c r="D18" s="341"/>
-      <c r="E18" s="341"/>
-      <c r="F18" s="342"/>
+      <c r="B18" s="366"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="362"/>
+      <c r="E18" s="362"/>
+      <c r="F18" s="363"/>
       <c r="G18" s="170"/>
       <c r="H18" s="170"/>
       <c r="I18" s="170"/>
@@ -11048,11 +11065,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="165"/>
-      <c r="B19" s="354"/>
-      <c r="C19" s="340"/>
-      <c r="D19" s="341"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="342"/>
+      <c r="B19" s="366"/>
+      <c r="C19" s="361"/>
+      <c r="D19" s="362"/>
+      <c r="E19" s="362"/>
+      <c r="F19" s="363"/>
       <c r="G19" s="170"/>
       <c r="H19" s="170"/>
       <c r="I19" s="170"/>
@@ -11063,11 +11080,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="165"/>
-      <c r="B20" s="354"/>
-      <c r="C20" s="340"/>
-      <c r="D20" s="341"/>
-      <c r="E20" s="341"/>
-      <c r="F20" s="342"/>
+      <c r="B20" s="366"/>
+      <c r="C20" s="361"/>
+      <c r="D20" s="362"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="363"/>
       <c r="G20" s="170"/>
       <c r="H20" s="170"/>
       <c r="I20" s="170"/>
@@ -11078,11 +11095,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="165"/>
-      <c r="B21" s="354"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="341"/>
-      <c r="F21" s="342"/>
+      <c r="B21" s="366"/>
+      <c r="C21" s="361"/>
+      <c r="D21" s="362"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="363"/>
       <c r="G21" s="170"/>
       <c r="H21" s="170"/>
       <c r="I21" s="170"/>
@@ -11093,7 +11110,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="165"/>
-      <c r="B22" s="354"/>
+      <c r="B22" s="366"/>
       <c r="C22" s="171"/>
       <c r="D22" s="117"/>
       <c r="E22" s="117"/>
@@ -11108,7 +11125,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="165"/>
-      <c r="B23" s="354"/>
+      <c r="B23" s="366"/>
       <c r="C23" s="171"/>
       <c r="D23" s="117"/>
       <c r="E23" s="117"/>
@@ -11123,7 +11140,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="165"/>
-      <c r="B24" s="354"/>
+      <c r="B24" s="366"/>
       <c r="C24" s="171"/>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -11138,7 +11155,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="165"/>
-      <c r="B25" s="354"/>
+      <c r="B25" s="366"/>
       <c r="C25" s="171"/>
       <c r="D25" s="117"/>
       <c r="E25" s="117"/>
@@ -11153,7 +11170,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="165"/>
-      <c r="B26" s="354"/>
+      <c r="B26" s="366"/>
       <c r="C26" s="171"/>
       <c r="D26" s="117"/>
       <c r="E26" s="117"/>
@@ -11168,7 +11185,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="165"/>
-      <c r="B27" s="354"/>
+      <c r="B27" s="366"/>
       <c r="C27" s="171"/>
       <c r="D27" s="117"/>
       <c r="E27" s="117"/>
@@ -11183,7 +11200,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="165"/>
-      <c r="B28" s="354"/>
+      <c r="B28" s="366"/>
       <c r="C28" s="171"/>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -11198,7 +11215,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="165"/>
-      <c r="B29" s="354"/>
+      <c r="B29" s="366"/>
       <c r="C29" s="171"/>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -11213,7 +11230,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="165"/>
-      <c r="B30" s="354"/>
+      <c r="B30" s="366"/>
       <c r="C30" s="171"/>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
@@ -11228,7 +11245,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="165"/>
-      <c r="B31" s="354"/>
+      <c r="B31" s="366"/>
       <c r="C31" s="171"/>
       <c r="D31" s="117"/>
       <c r="E31" s="117"/>
@@ -11243,11 +11260,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="165"/>
-      <c r="B32" s="354"/>
-      <c r="C32" s="340"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="341"/>
-      <c r="F32" s="342"/>
+      <c r="B32" s="366"/>
+      <c r="C32" s="361"/>
+      <c r="D32" s="362"/>
+      <c r="E32" s="362"/>
+      <c r="F32" s="363"/>
       <c r="G32" s="170"/>
       <c r="H32" s="170"/>
       <c r="I32" s="170"/>
@@ -11258,11 +11275,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="165"/>
-      <c r="B33" s="354"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="341"/>
-      <c r="E33" s="341"/>
-      <c r="F33" s="342"/>
+      <c r="B33" s="366"/>
+      <c r="C33" s="361"/>
+      <c r="D33" s="362"/>
+      <c r="E33" s="362"/>
+      <c r="F33" s="363"/>
       <c r="G33" s="170"/>
       <c r="H33" s="170"/>
       <c r="I33" s="170"/>
@@ -11273,11 +11290,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="165"/>
-      <c r="B34" s="354"/>
-      <c r="C34" s="340"/>
-      <c r="D34" s="341"/>
-      <c r="E34" s="341"/>
-      <c r="F34" s="342"/>
+      <c r="B34" s="366"/>
+      <c r="C34" s="361"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="363"/>
       <c r="G34" s="170"/>
       <c r="H34" s="170"/>
       <c r="I34" s="170"/>
@@ -11288,11 +11305,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="165"/>
-      <c r="B35" s="354"/>
-      <c r="C35" s="340"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
-      <c r="F35" s="342"/>
+      <c r="B35" s="366"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="363"/>
       <c r="G35" s="170"/>
       <c r="H35" s="170"/>
       <c r="I35" s="170"/>
@@ -11303,11 +11320,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="165"/>
-      <c r="B36" s="355"/>
-      <c r="C36" s="340"/>
-      <c r="D36" s="341"/>
-      <c r="E36" s="341"/>
-      <c r="F36" s="342"/>
+      <c r="B36" s="367"/>
+      <c r="C36" s="361"/>
+      <c r="D36" s="362"/>
+      <c r="E36" s="362"/>
+      <c r="F36" s="363"/>
       <c r="G36" s="170"/>
       <c r="H36" s="170"/>
       <c r="I36" s="170"/>
@@ -11337,6 +11354,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
@@ -11353,16 +11380,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11371,6 +11388,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100557DBD090A96984F918D8DA7D7571551" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4176f3855581886f8a28622d6f8342d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f71bcf13-258b-402b-ad05-50b5731642d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff149660b74c94bbad6e21449abc1f8" ns2:_="">
     <xsd:import namespace="f71bcf13-258b-402b-ad05-50b5731642d2"/>
@@ -11502,22 +11534,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B1C2C21-5B64-4342-8089-F1341A847425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA27B23-320D-4521-B608-FCE7E5018FF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E53022-519B-4302-84D8-1CD934539532}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11533,21 +11567,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA27B23-320D-4521-B608-FCE7E5018FF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B1C2C21-5B64-4342-8089-F1341A847425}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>